--- a/tab/permutation_test.xlsx
+++ b/tab/permutation_test.xlsx
@@ -407,19 +407,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.009596580527044402</v>
+        <v>0.02307499446305753</v>
       </c>
       <c r="D2">
-        <v>0.003198860175681467</v>
+        <v>0.007691664821019177</v>
       </c>
       <c r="E2">
-        <v>0.4255650373596584</v>
+        <v>0.9898488472354351</v>
       </c>
       <c r="F2">
         <v>9999</v>
       </c>
       <c r="G2">
-        <v>0.7298</v>
+        <v>0.4016</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>46</v>
       </c>
       <c r="C3">
-        <v>0.3457698710267603</v>
+        <v>0.3574450611879402</v>
       </c>
       <c r="D3">
-        <v>0.007516736326668701</v>
+        <v>0.007770544808433482</v>
       </c>
     </row>
   </sheetData>
@@ -493,13 +493,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.011765897977665</v>
+        <v>1.186202689800915</v>
       </c>
       <c r="D2">
-        <v>0.1486804700543396</v>
+        <v>0.1704981640787701</v>
       </c>
       <c r="E2">
-        <v>2.677921893375795</v>
+        <v>3.151656897344588</v>
       </c>
       <c r="F2">
         <v>0.0001</v>
@@ -515,10 +515,10 @@
         <v>46</v>
       </c>
       <c r="C3">
-        <v>5.793202485616264</v>
+        <v>5.771072751903486</v>
       </c>
       <c r="D3">
-        <v>0.8513195299456603</v>
+        <v>0.8295018359212297</v>
       </c>
     </row>
     <row r="4">
@@ -531,7 +531,7 @@
         <v>49</v>
       </c>
       <c r="C4">
-        <v>6.80496838359393</v>
+        <v>6.957275441704403</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -597,19 +597,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.009604197688458098</v>
+        <v>0.01691147347062271</v>
       </c>
       <c r="D2">
-        <v>0.003201399229486033</v>
+        <v>0.005637157823540903</v>
       </c>
       <c r="E2">
-        <v>0.3783757215249159</v>
+        <v>0.7161765396210577</v>
       </c>
       <c r="F2">
         <v>9999</v>
       </c>
       <c r="G2">
-        <v>0.7643</v>
+        <v>0.5388</v>
       </c>
     </row>
     <row r="3">
@@ -622,10 +622,10 @@
         <v>46</v>
       </c>
       <c r="C3">
-        <v>0.389201410605464</v>
+        <v>0.3620744963526548</v>
       </c>
       <c r="D3">
-        <v>0.008460900230553565</v>
+        <v>0.007871184703318582</v>
       </c>
     </row>
   </sheetData>
@@ -683,16 +683,16 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.111196501236009</v>
+        <v>1.513759448274794</v>
       </c>
       <c r="D2">
-        <v>0.1298068286212594</v>
+        <v>0.16548076405133</v>
       </c>
       <c r="E2">
-        <v>2.287275328808987</v>
+        <v>3.040519147014361</v>
       </c>
       <c r="F2">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="3">
@@ -705,10 +705,10 @@
         <v>46</v>
       </c>
       <c r="C3">
-        <v>7.449189058126002</v>
+        <v>7.633886545221134</v>
       </c>
       <c r="D3">
-        <v>0.8701931713787404</v>
+        <v>0.8345192359486698</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         <v>49</v>
       </c>
       <c r="C4">
-        <v>8.560385559362013</v>
+        <v>9.14764599349593</v>
       </c>
       <c r="D4">
         <v>1</v>
